--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H2">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>1172.310350655099</v>
+        <v>1453.415906057711</v>
       </c>
       <c r="R2">
-        <v>1172.310350655099</v>
+        <v>13080.7431545194</v>
       </c>
       <c r="S2">
-        <v>0.01017763407913249</v>
+        <v>0.007608616758727596</v>
       </c>
       <c r="T2">
-        <v>0.01017763407913249</v>
+        <v>0.007608616758727595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H3">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>1247.855862796379</v>
+        <v>1531.95420454135</v>
       </c>
       <c r="R3">
-        <v>1247.855862796379</v>
+        <v>13787.58784087215</v>
       </c>
       <c r="S3">
-        <v>0.01083349673398746</v>
+        <v>0.008019763913202756</v>
       </c>
       <c r="T3">
-        <v>0.01083349673398746</v>
+        <v>0.008019763913202756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H4">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>804.6486276046713</v>
+        <v>989.7789159988279</v>
       </c>
       <c r="R4">
-        <v>804.6486276046713</v>
+        <v>8908.010243989451</v>
       </c>
       <c r="S4">
-        <v>0.006985709278656597</v>
+        <v>0.005181482063266263</v>
       </c>
       <c r="T4">
-        <v>0.006985709278656597</v>
+        <v>0.005181482063266263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H5">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I5">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J5">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>623.9072211705138</v>
+        <v>772.0028220573946</v>
       </c>
       <c r="R5">
-        <v>623.9072211705138</v>
+        <v>6948.02539851655</v>
       </c>
       <c r="S5">
-        <v>0.00541656856723434</v>
+        <v>0.004041426535384054</v>
       </c>
       <c r="T5">
-        <v>0.00541656856723434</v>
+        <v>0.004041426535384053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H6">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I6">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J6">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>412.463870407512</v>
+        <v>530.3147086642779</v>
       </c>
       <c r="R6">
-        <v>412.463870407512</v>
+        <v>4772.8323779785</v>
       </c>
       <c r="S6">
-        <v>0.003580883118130408</v>
+        <v>0.002776191840838812</v>
       </c>
       <c r="T6">
-        <v>0.003580883118130408</v>
+        <v>0.002776191840838811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H7">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>25086.04139047402</v>
+        <v>25439.35934478354</v>
       </c>
       <c r="R7">
-        <v>25086.04139047402</v>
+        <v>228954.2341030519</v>
       </c>
       <c r="S7">
-        <v>0.2177892139428294</v>
+        <v>0.1331747747050787</v>
       </c>
       <c r="T7">
-        <v>0.2177892139428294</v>
+        <v>0.1331747747050787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H8">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J8">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>26702.62512479122</v>
+        <v>26814.02711133668</v>
       </c>
       <c r="R8">
-        <v>26702.62512479122</v>
+        <v>241326.2440020301</v>
       </c>
       <c r="S8">
-        <v>0.2318238914469254</v>
+        <v>0.1403711457938258</v>
       </c>
       <c r="T8">
-        <v>0.2318238914469254</v>
+        <v>0.1403711457938258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H9">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J9">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>17218.519622896</v>
+        <v>17324.25069179386</v>
       </c>
       <c r="R9">
-        <v>17218.519622896</v>
+        <v>155918.2562261448</v>
       </c>
       <c r="S9">
-        <v>0.1494858353918567</v>
+        <v>0.09069226750346776</v>
       </c>
       <c r="T9">
-        <v>0.1494858353918567</v>
+        <v>0.09069226750346777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H10">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J10">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>13350.86938825799</v>
+        <v>13512.48264426605</v>
       </c>
       <c r="R10">
-        <v>13350.86938825799</v>
+        <v>121612.3437983945</v>
       </c>
       <c r="S10">
-        <v>0.1159080982233502</v>
+        <v>0.07073770245025524</v>
       </c>
       <c r="T10">
-        <v>0.1159080982233502</v>
+        <v>0.07073770245025524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H11">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J11">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>8826.23421292485</v>
+        <v>9282.178888579654</v>
       </c>
       <c r="R11">
-        <v>8826.23421292485</v>
+        <v>83539.60999721687</v>
       </c>
       <c r="S11">
-        <v>0.07662662200813215</v>
+        <v>0.048592107431051</v>
       </c>
       <c r="T11">
-        <v>0.07662662200813215</v>
+        <v>0.048592107431051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H12">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I12">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J12">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>956.2462380861367</v>
+        <v>983.7388805299103</v>
       </c>
       <c r="R12">
-        <v>956.2462380861367</v>
+        <v>8853.649924769192</v>
       </c>
       <c r="S12">
-        <v>0.008301832612284954</v>
+        <v>0.005149862542040044</v>
       </c>
       <c r="T12">
-        <v>0.008301832612284954</v>
+        <v>0.005149862542040044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H13">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I13">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J13">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>1017.868240953399</v>
+        <v>1036.897221172118</v>
       </c>
       <c r="R13">
-        <v>1017.868240953399</v>
+        <v>9332.074990549061</v>
       </c>
       <c r="S13">
-        <v>0.008836815687420122</v>
+        <v>0.005428145888046299</v>
       </c>
       <c r="T13">
-        <v>0.008836815687420122</v>
+        <v>0.005428145888046299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H14">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I14">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J14">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>656.3468647173231</v>
+        <v>669.9279942778695</v>
       </c>
       <c r="R14">
-        <v>656.3468647173231</v>
+        <v>6029.351948500826</v>
       </c>
       <c r="S14">
-        <v>0.005698199469403224</v>
+        <v>0.003507065901204583</v>
       </c>
       <c r="T14">
-        <v>0.005698199469403224</v>
+        <v>0.003507065901204584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H15">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I15">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J15">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>508.9172272732116</v>
+        <v>522.5270954936949</v>
       </c>
       <c r="R15">
-        <v>508.9172272732116</v>
+        <v>4702.743859443254</v>
       </c>
       <c r="S15">
-        <v>0.004418261182168234</v>
+        <v>0.002735423768992877</v>
       </c>
       <c r="T15">
-        <v>0.004418261182168234</v>
+        <v>0.002735423768992877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H16">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I16">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J16">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>336.444205413035</v>
+        <v>358.9414397183755</v>
       </c>
       <c r="R16">
-        <v>336.444205413035</v>
+        <v>3230.47295746538</v>
       </c>
       <c r="S16">
-        <v>0.002920904015583312</v>
+        <v>0.001879054606640999</v>
       </c>
       <c r="T16">
-        <v>0.002920904015583312</v>
+        <v>0.001879054606640999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H17">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I17">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J17">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>2214.755623684919</v>
+        <v>21801.68410574842</v>
       </c>
       <c r="R17">
-        <v>2214.755623684919</v>
+        <v>196215.1569517358</v>
       </c>
       <c r="S17">
-        <v>0.01922781991984448</v>
+        <v>0.114131583646571</v>
       </c>
       <c r="T17">
-        <v>0.01922781991984448</v>
+        <v>0.114131583646571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H18">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I18">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J18">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>2357.477939294912</v>
+        <v>22979.78265731009</v>
       </c>
       <c r="R18">
-        <v>2357.477939294912</v>
+        <v>206818.0439157908</v>
       </c>
       <c r="S18">
-        <v>0.02046689070207655</v>
+        <v>0.1202989169924391</v>
       </c>
       <c r="T18">
-        <v>0.02046689070207655</v>
+        <v>0.1202989169924391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H19">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I19">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J19">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>1520.160657185994</v>
+        <v>14846.98713644029</v>
       </c>
       <c r="R19">
-        <v>1520.160657185994</v>
+        <v>133622.8842279626</v>
       </c>
       <c r="S19">
-        <v>0.01319756231930129</v>
+        <v>0.07772381922621334</v>
       </c>
       <c r="T19">
-        <v>0.01319756231930129</v>
+        <v>0.07772381922621335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H20">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I20">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J20">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>1178.699843409948</v>
+        <v>11580.27897251684</v>
       </c>
       <c r="R20">
-        <v>1178.699843409948</v>
+        <v>104222.5107526516</v>
       </c>
       <c r="S20">
-        <v>0.01023310566920571</v>
+        <v>0.06062263684730433</v>
       </c>
       <c r="T20">
-        <v>0.01023310566920571</v>
+        <v>0.06062263684730433</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H21">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I21">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J21">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>779.2362116750128</v>
+        <v>7954.883187078251</v>
       </c>
       <c r="R21">
-        <v>779.2362116750128</v>
+        <v>71593.94868370425</v>
       </c>
       <c r="S21">
-        <v>0.00676508658241046</v>
+        <v>0.04164372859733975</v>
       </c>
       <c r="T21">
-        <v>0.00676508658241046</v>
+        <v>0.04164372859733975</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H22">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I22">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J22">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>2259.598782436919</v>
+        <v>2929.417353900023</v>
       </c>
       <c r="R22">
-        <v>2259.598782436919</v>
+        <v>26364.75618510021</v>
       </c>
       <c r="S22">
-        <v>0.01961713428568222</v>
+        <v>0.01533546858768596</v>
       </c>
       <c r="T22">
-        <v>0.01961713428568222</v>
+        <v>0.01533546858768596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H23">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I23">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J23">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>2405.210861318268</v>
+        <v>3087.714406770323</v>
       </c>
       <c r="R23">
-        <v>2405.210861318268</v>
+        <v>27789.4296609329</v>
       </c>
       <c r="S23">
-        <v>0.02088129309442087</v>
+        <v>0.01616415197026505</v>
       </c>
       <c r="T23">
-        <v>0.02088129309442087</v>
+        <v>0.01616415197026505</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H24">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I24">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J24">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>1550.940037515692</v>
+        <v>1994.938627660918</v>
       </c>
       <c r="R24">
-        <v>1550.940037515692</v>
+        <v>17954.44764894826</v>
       </c>
       <c r="S24">
-        <v>0.01346477933227322</v>
+        <v>0.01044348242770035</v>
       </c>
       <c r="T24">
-        <v>0.01346477933227322</v>
+        <v>0.01044348242770035</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H25">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I25">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J25">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>1202.565512215</v>
+        <v>1556.002280399513</v>
       </c>
       <c r="R25">
-        <v>1202.565512215</v>
+        <v>14004.02052359562</v>
       </c>
       <c r="S25">
-        <v>0.01044029998768618</v>
+        <v>0.008145655333701842</v>
       </c>
       <c r="T25">
-        <v>0.01044029998768618</v>
+        <v>0.008145655333701844</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H26">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I26">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J26">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>795.0137596680103</v>
+        <v>1068.870310359659</v>
       </c>
       <c r="R26">
-        <v>795.0137596680103</v>
+        <v>9619.832793236928</v>
       </c>
       <c r="S26">
-        <v>0.006902062350003869</v>
+        <v>0.005595524668756405</v>
       </c>
       <c r="T26">
-        <v>0.006902062350003869</v>
+        <v>0.005595524668756405</v>
       </c>
     </row>
   </sheetData>
